--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1039">
   <si>
     <t>anchor score</t>
   </si>
@@ -319,580 +319,580 @@
     <t>losing</t>
   </si>
   <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>stuck</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>delayed</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>cal</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>heroes</t>
@@ -3496,10 +3496,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3678,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K5">
         <v>0.847457627118644</v>
@@ -3728,7 +3728,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K6">
         <v>0.84251968503937</v>
@@ -3828,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8">
         <v>0.8</v>
@@ -3878,7 +3878,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K9">
         <v>0.7579617834394905</v>
@@ -3978,7 +3978,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K11">
         <v>0.6971830985915493</v>
@@ -4028,28 +4028,28 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K12">
-        <v>0.6782608695652174</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="M12">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4078,28 +4078,28 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>92</v>
+        <v>289</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L13">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4128,7 +4128,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K14">
         <v>0.5964912280701754</v>
@@ -4178,7 +4178,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K15">
         <v>0.5873015873015873</v>
@@ -4228,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K16">
         <v>0.5833333333333334</v>
@@ -4278,28 +4278,28 @@
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="K17">
-        <v>0.5792682926829268</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="L17">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>138</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4328,28 +4328,28 @@
         <v>100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>111</v>
+        <v>292</v>
       </c>
       <c r="K18">
-        <v>0.5671641791044776</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4428,7 +4428,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K20">
         <v>0.5511811023622047</v>
@@ -4478,7 +4478,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K21">
         <v>0.5259515570934256</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K22">
         <v>0.5172413793103449</v>
@@ -4678,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K25">
         <v>0.4375</v>
@@ -4778,7 +4778,7 @@
         <v>5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K27">
         <v>0.4285714285714285</v>
@@ -4928,7 +4928,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K30">
         <v>0.40625</v>
@@ -5128,7 +5128,7 @@
         <v>19</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K34">
         <v>0.3617021276595745</v>
@@ -5178,7 +5178,7 @@
         <v>16</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K35">
         <v>0.3607594936708861</v>
@@ -5278,7 +5278,7 @@
         <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K37">
         <v>0.3459715639810427</v>
@@ -5778,7 +5778,7 @@
         <v>24</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K47">
         <v>0.3309002433090024</v>
@@ -5828,7 +5828,7 @@
         <v>53</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K48">
         <v>0.3263157894736842</v>
@@ -5928,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K50">
         <v>0.3214285714285715</v>
@@ -6028,7 +6028,7 @@
         <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K52">
         <v>0.308641975308642</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K55">
         <v>0.2962962962962963</v>
@@ -6678,7 +6678,7 @@
         <v>14</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K65">
         <v>0.28</v>
@@ -7078,7 +7078,7 @@
         <v>28</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K73">
         <v>0.2611464968152866</v>
@@ -7178,7 +7178,7 @@
         <v>6</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K75">
         <v>0.25</v>
@@ -7578,7 +7578,7 @@
         <v>14</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K83">
         <v>0.2424242424242424</v>
@@ -8028,7 +8028,7 @@
         <v>8</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K92">
         <v>0.2330827067669173</v>
@@ -8207,25 +8207,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.108433734939759</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>349</v>
@@ -8307,13 +8307,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1052631578947368</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -8325,10 +8325,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K98">
         <v>0.2303206997084548</v>
@@ -8357,7 +8357,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1025641025641026</v>
+        <v>0.1</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -8375,10 +8375,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K99">
         <v>0.2287104622871046</v>
@@ -8410,22 +8410,22 @@
         <v>0.1</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>351</v>
@@ -8463,16 +8463,16 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>9</v>
@@ -8557,13 +8557,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>354</v>
@@ -8607,13 +8607,13 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.09523809523809523</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>355</v>
@@ -8657,25 +8657,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.09395973154362416</v>
+        <v>0.09375</v>
       </c>
       <c r="C105">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>90</v>
@@ -8707,25 +8707,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.09375</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>356</v>
@@ -8778,7 +8778,7 @@
         <v>10</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K107">
         <v>0.2196969696969697</v>
@@ -8828,7 +8828,7 @@
         <v>10</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K108">
         <v>0.2170978627671541</v>
@@ -8863,22 +8863,22 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
         <v>10</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K109">
         <v>0.2153846153846154</v>
@@ -8913,22 +8913,22 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>10</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K110">
         <v>0.2142857142857143</v>
@@ -8960,22 +8960,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>357</v>
@@ -9010,22 +9010,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>358</v>
@@ -9057,13 +9057,13 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.09090909090909091</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>359</v>
@@ -9107,25 +9107,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.08823529411764706</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D114">
         <v>3</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>360</v>
@@ -9157,25 +9157,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>361</v>
@@ -9313,22 +9313,22 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>11</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K118">
         <v>0.2083333333333333</v>
@@ -9363,16 +9363,16 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>11</v>
@@ -9407,7 +9407,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>365</v>
@@ -9457,25 +9457,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C121">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>366</v>
@@ -9507,28 +9507,28 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.07692307692307693</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K122">
         <v>0.2073578595317726</v>
@@ -9557,13 +9557,13 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -9575,10 +9575,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K123">
         <v>0.2072072072072072</v>
@@ -9607,28 +9607,28 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F124">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K124">
         <v>0.2043010752688172</v>
@@ -9663,16 +9663,16 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>13</v>
@@ -9713,13 +9713,13 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F126">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
@@ -9728,7 +9728,7 @@
         <v>13</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K126">
         <v>0.2024922118380062</v>
@@ -9763,16 +9763,16 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>13</v>
@@ -9828,7 +9828,7 @@
         <v>13</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K128">
         <v>0.2</v>
@@ -9857,25 +9857,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>369</v>
@@ -9907,25 +9907,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.07142857142857142</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E130">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="F130">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>370</v>
@@ -9957,28 +9957,28 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K131">
         <v>0.2</v>
@@ -10007,25 +10007,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.06818181818181818</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E132">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F132">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>371</v>
@@ -10107,25 +10107,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>373</v>
@@ -10157,25 +10157,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>374</v>
@@ -10263,13 +10263,13 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F137">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
@@ -10307,7 +10307,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>377</v>
@@ -10357,25 +10357,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139">
         <v>4</v>
       </c>
       <c r="E139">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F139">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>378</v>
@@ -10407,13 +10407,13 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>379</v>
@@ -10457,25 +10457,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>380</v>
@@ -10510,10 +10510,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>381</v>
@@ -10563,22 +10563,22 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>17</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K143">
         <v>0.1971830985915493</v>
@@ -10657,25 +10657,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>383</v>
@@ -10707,25 +10707,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>384</v>
@@ -10763,22 +10763,22 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
         <v>18</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K147">
         <v>0.1923076923076923</v>
@@ -10813,13 +10813,13 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E148">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F148">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
@@ -10857,28 +10857,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E149">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F149">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K149">
         <v>0.1904761904761905</v>
@@ -10907,25 +10907,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D150">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>386</v>
@@ -10957,25 +10957,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E151">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F151">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>387</v>
@@ -11010,25 +11010,25 @@
         <v>0.05</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K152">
         <v>0.1882352941176471</v>
@@ -11057,25 +11057,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E153">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F153">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>388</v>
@@ -11107,25 +11107,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.05</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D154">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E154">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="F154">
-        <v>0.11</v>
+        <v>0.38</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>389</v>
@@ -11157,25 +11157,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E155">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F155">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>390</v>
@@ -11207,28 +11207,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.04615384615384616</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E156">
-        <v>0.62</v>
+        <v>0.83</v>
       </c>
       <c r="F156">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K156">
         <v>0.1855123674911661</v>
@@ -11257,25 +11257,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>391</v>
@@ -11307,28 +11307,28 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K158">
         <v>0.1842105263157895</v>
@@ -11413,16 +11413,16 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>22</v>
@@ -11457,28 +11457,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.04347826086956522</v>
+        <v>0.04195804195804196</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K161">
         <v>0.1818772328678142</v>
@@ -11507,25 +11507,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>394</v>
@@ -11557,25 +11557,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.04195804195804196</v>
+        <v>0.04</v>
       </c>
       <c r="C163">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>395</v>
@@ -11607,25 +11607,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E164">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F164">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>396</v>
@@ -11663,16 +11663,16 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
         <v>24</v>
@@ -11710,22 +11710,22 @@
         <v>0.04</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E166">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F166">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>398</v>
@@ -11757,25 +11757,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>399</v>
@@ -11807,25 +11807,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F168">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>400</v>
@@ -11863,16 +11863,16 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
         <v>25</v>
@@ -11913,13 +11913,13 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E170">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F170">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
@@ -11957,25 +11957,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>403</v>
@@ -12007,28 +12007,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K172">
         <v>0.1794871794871795</v>
@@ -12057,28 +12057,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K173">
         <v>0.1791530944625407</v>
@@ -12107,7 +12107,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.03703703703703703</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -12125,7 +12125,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>404</v>
@@ -12157,25 +12157,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>405</v>
@@ -12213,16 +12213,16 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>28</v>
@@ -12257,25 +12257,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.03448275862068965</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>407</v>
@@ -12307,25 +12307,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E178">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F178">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>408</v>
@@ -12357,25 +12357,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.03278688524590164</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E179">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F179">
-        <v>0.15</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>409</v>
@@ -12407,25 +12407,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>410</v>
@@ -12457,28 +12457,28 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E181">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F181">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K181">
         <v>0.1739130434782609</v>
@@ -12507,25 +12507,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E182">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F182">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>411</v>
@@ -12557,25 +12557,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03125</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>412</v>
@@ -12607,25 +12607,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0303030303030303</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D184">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E184">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F184">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>413</v>
@@ -12657,7 +12657,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>414</v>
@@ -12707,25 +12707,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02816901408450704</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="E186">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F186">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>415</v>
@@ -12757,25 +12757,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>416</v>
@@ -12807,25 +12807,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>417</v>
@@ -12857,7 +12857,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -12875,10 +12875,10 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K189">
         <v>0.1666666666666667</v>
@@ -12913,16 +12913,16 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>38</v>
@@ -12963,13 +12963,13 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E191">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F191">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
@@ -13007,25 +13007,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F192">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>420</v>
@@ -13057,25 +13057,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02564102564102564</v>
+        <v>0.02482269503546099</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D193">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="E193">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F193">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>421</v>
@@ -13107,25 +13107,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E194">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>422</v>
@@ -13157,25 +13157,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02482269503546099</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C195">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="E195">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F195">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>423</v>
@@ -13207,25 +13207,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C196">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>424</v>
@@ -13257,25 +13257,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02380952380952381</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E197">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F197">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>425</v>
@@ -13307,25 +13307,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02325581395348837</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E198">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F198">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>426</v>
@@ -13357,28 +13357,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02290076335877863</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C199">
         <v>6</v>
       </c>
       <c r="D199">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E199">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F199">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K199">
         <v>0.1666666666666667</v>
@@ -13407,13 +13407,13 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02247191011235955</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E200">
         <v>0.75</v>
@@ -13425,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>427</v>
@@ -13460,22 +13460,22 @@
         <v>0.02222222222222222</v>
       </c>
       <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
         <v>6</v>
       </c>
-      <c r="D201">
-        <v>85</v>
-      </c>
       <c r="E201">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F201">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>428</v>
@@ -13507,25 +13507,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E202">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F202">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>429</v>
@@ -13557,25 +13557,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E203">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F203">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>430</v>
@@ -13613,13 +13613,13 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E204">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F204">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
@@ -13657,25 +13657,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02173913043478261</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F205">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>432</v>
@@ -13707,25 +13707,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02173913043478261</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E206">
-        <v>0.9399999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F206">
-        <v>0.06000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>433</v>
@@ -13757,25 +13757,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F207">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>434</v>
@@ -13807,25 +13807,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C208">
         <v>2</v>
       </c>
       <c r="D208">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E208">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F208">
-        <v>0.4</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>435</v>
@@ -13857,25 +13857,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
         <v>10</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F209">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>436</v>
@@ -13907,25 +13907,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E210">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F210">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>437</v>
@@ -13957,25 +13957,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0196078431372549</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F211">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>438</v>
@@ -14007,25 +14007,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E212">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F212">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>439</v>
@@ -14063,13 +14063,13 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E213">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F213">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
@@ -14078,7 +14078,7 @@
         <v>53</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K213">
         <v>0.1653666146645866</v>
@@ -14107,25 +14107,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E214">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F214">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>440</v>
@@ -14157,28 +14157,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E215">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F215">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K215">
         <v>0.1623931623931624</v>
@@ -14210,25 +14210,25 @@
         <v>0.01818181818181818</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K216">
         <v>0.1621621621621622</v>
@@ -14257,28 +14257,28 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E217">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F217">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K217">
         <v>0.1617021276595745</v>
@@ -14307,25 +14307,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>441</v>
@@ -14357,25 +14357,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E219">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F219">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>442</v>
@@ -14407,25 +14407,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F220">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>443</v>
@@ -14457,25 +14457,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>444</v>
@@ -14507,25 +14507,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>445</v>
@@ -14560,22 +14560,22 @@
         <v>0.01694915254237288</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>446</v>
@@ -14607,25 +14607,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>447</v>
@@ -14657,25 +14657,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E225">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F225">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>448</v>
@@ -14707,28 +14707,28 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01666666666666667</v>
+        <v>0.01654411764705882</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D226">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="E226">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F226">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>59</v>
+        <v>535</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K226">
         <v>0.1571428571428571</v>
@@ -14757,25 +14757,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01666666666666667</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E227">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F227">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>449</v>
@@ -14807,25 +14807,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01654411764705882</v>
+        <v>0.01552795031055901</v>
       </c>
       <c r="C228">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D228">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E228">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F228">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>535</v>
+        <v>317</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>450</v>
@@ -14857,25 +14857,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01639344262295082</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E229">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F229">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>451</v>
@@ -14907,28 +14907,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01552795031055901</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C230">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E230">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F230">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>317</v>
+        <v>65</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K230">
         <v>0.1525423728813559</v>
@@ -14957,25 +14957,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01538461538461539</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E231">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F231">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>452</v>
@@ -15007,25 +15007,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01515151515151515</v>
+        <v>0.01340482573726542</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D232">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E232">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>65</v>
+        <v>368</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>453</v>
@@ -15057,25 +15057,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01388888888888889</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E233">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F233">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>454</v>
@@ -15107,28 +15107,28 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01340482573726542</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="C234">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>368</v>
+        <v>149</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K234">
         <v>0.1481481481481481</v>
@@ -15157,25 +15157,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01333333333333333</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F235">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>455</v>
@@ -15207,25 +15207,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01324503311258278</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E236">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F236">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>456</v>
@@ -15257,28 +15257,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0131578947368421</v>
+        <v>0.01291711517761033</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E237">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="F237">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>75</v>
+        <v>917</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K237">
         <v>0.1475409836065574</v>
@@ -15307,28 +15307,28 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01298701298701299</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F238">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K238">
         <v>0.1463414634146341</v>
@@ -15357,28 +15357,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01291711517761033</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
         <v>12</v>
       </c>
-      <c r="D239">
-        <v>51</v>
-      </c>
       <c r="E239">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="F239">
-        <v>0.24</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>917</v>
+        <v>77</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K239">
         <v>0.1463414634146341</v>
@@ -15407,25 +15407,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01282051282051282</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F240">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>457</v>
@@ -15457,28 +15457,28 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01282051282051282</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E241">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="F241">
-        <v>0.07999999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K241">
         <v>0.1451612903225807</v>
@@ -15507,25 +15507,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01265822784810127</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C242">
         <v>2</v>
       </c>
       <c r="D242">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E242">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>458</v>
@@ -15557,25 +15557,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01219512195121951</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="C243">
         <v>2</v>
       </c>
       <c r="D243">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="E243">
-        <v>0.78</v>
+        <v>0.99</v>
       </c>
       <c r="F243">
-        <v>0.22</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>459</v>
@@ -15607,25 +15607,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01204819277108434</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>460</v>
@@ -15657,25 +15657,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0115606936416185</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="E245">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F245">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>461</v>
@@ -15707,25 +15707,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0115606936416185</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E246">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F246">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>462</v>
@@ -15757,25 +15757,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01149425287356322</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E247">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>463</v>
@@ -15807,25 +15807,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01123595505617977</v>
+        <v>0.01099332548095799</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D248">
-        <v>24</v>
+        <v>588</v>
       </c>
       <c r="E248">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F248">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>88</v>
+        <v>2519</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>464</v>
@@ -15857,25 +15857,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01111111111111111</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>465</v>
@@ -15907,13 +15907,13 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01099332548095799</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C250">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>588</v>
+        <v>19</v>
       </c>
       <c r="E250">
         <v>0.95</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>2519</v>
+        <v>93</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>466</v>
@@ -15957,25 +15957,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01075268817204301</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E251">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F251">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>467</v>
@@ -16007,25 +16007,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01063829787234043</v>
+        <v>0.01032702237521515</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D252">
-        <v>19</v>
+        <v>418</v>
       </c>
       <c r="E252">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F252">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>93</v>
+        <v>1725</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>468</v>
@@ -16057,25 +16057,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01041666666666667</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E253">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F253">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>469</v>
@@ -16107,25 +16107,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01032702237521515</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="C254">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D254">
-        <v>418</v>
+        <v>40</v>
       </c>
       <c r="E254">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F254">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>1725</v>
+        <v>197</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>470</v>
@@ -16157,25 +16157,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0101010101010101</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E255">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F255">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>471</v>
@@ -16207,28 +16207,28 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01005025125628141</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E256">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F256">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K256">
         <v>0.1428571428571428</v>
@@ -16257,25 +16257,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.009900990099009901</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E257">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F257">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>472</v>
@@ -16307,25 +16307,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.009803921568627451</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E258">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F258">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>473</v>
@@ -16357,25 +16357,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.009803921568627451</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E259">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F259">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>474</v>
@@ -16413,13 +16413,13 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E260">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F260">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
@@ -16457,13 +16457,13 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.009708737864077669</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E261">
         <v>0.97</v>
@@ -16475,7 +16475,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>476</v>
@@ -16507,25 +16507,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.009708737864077669</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E262">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F262">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>477</v>
@@ -16557,25 +16557,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.009615384615384616</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E263">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F263">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>478</v>
@@ -16607,25 +16607,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.009259259259259259</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E264">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F264">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>479</v>
@@ -16657,25 +16657,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.008849557522123894</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E265">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F265">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>480</v>
@@ -16707,25 +16707,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.008695652173913044</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E266">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F266">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>481</v>
@@ -16757,25 +16757,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.008695652173913044</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D267">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="E267">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F267">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>114</v>
+        <v>735</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>482</v>
@@ -16807,25 +16807,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.008333333333333333</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E268">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F268">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>483</v>
@@ -16857,25 +16857,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.008097165991902834</v>
+        <v>0.007132667617689016</v>
       </c>
       <c r="C269">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D269">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="E269">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F269">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>484</v>
@@ -16907,25 +16907,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.007936507936507936</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E270">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F270">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>485</v>
@@ -16957,25 +16957,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.007132667617689016</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C271">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="E271">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F271">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>696</v>
+        <v>141</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>486</v>
@@ -17007,25 +17007,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.007092198581560284</v>
+        <v>0.005594405594405594</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D272">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="E272">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F272">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>140</v>
+        <v>711</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>487</v>
@@ -17057,25 +17057,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.007042253521126761</v>
+        <v>0.004659832246039142</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D273">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E273">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F273">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>141</v>
+        <v>1068</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>488</v>
@@ -17107,25 +17107,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.005594405594405594</v>
+        <v>0.004567814476458187</v>
       </c>
       <c r="C274">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D274">
-        <v>190</v>
+        <v>368</v>
       </c>
       <c r="E274">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F274">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>711</v>
+        <v>2833</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>489</v>
@@ -17157,25 +17157,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.004659832246039142</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C275">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="E275">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F275">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>1068</v>
+        <v>234</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>490</v>
@@ -17207,25 +17207,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.004567814476458187</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C276">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>368</v>
+        <v>30</v>
       </c>
       <c r="E276">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F276">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>2833</v>
+        <v>251</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>491</v>
@@ -17257,28 +17257,28 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.00425531914893617</v>
+        <v>0.00396039603960396</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D277">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E277">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F277">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>234</v>
+        <v>503</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K277">
         <v>0.1384615384615385</v>
@@ -17307,25 +17307,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.003968253968253968</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E278">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F278">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>492</v>
@@ -17357,25 +17357,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.00396039603960396</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="C279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E279">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F279">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>503</v>
+        <v>286</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>493</v>
@@ -17407,25 +17407,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.003952569169960474</v>
+        <v>0.002985074626865672</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E280">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F280">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>494</v>
@@ -17457,25 +17457,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.003484320557491289</v>
+        <v>0.002164502164502165</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="E281">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="F281">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>286</v>
+        <v>461</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>495</v>
@@ -17503,30 +17503,6 @@
       </c>
     </row>
     <row r="282" spans="1:17">
-      <c r="A282" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B282">
-        <v>0.002985074626865672</v>
-      </c>
-      <c r="C282">
-        <v>1</v>
-      </c>
-      <c r="D282">
-        <v>26</v>
-      </c>
-      <c r="E282">
-        <v>0.96</v>
-      </c>
-      <c r="F282">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282">
-        <v>334</v>
-      </c>
       <c r="J282" s="1" t="s">
         <v>496</v>
       </c>
@@ -17553,30 +17529,6 @@
       </c>
     </row>
     <row r="283" spans="1:17">
-      <c r="A283" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B283">
-        <v>0.002164502164502165</v>
-      </c>
-      <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <v>106</v>
-      </c>
-      <c r="E283">
-        <v>0.99</v>
-      </c>
-      <c r="F283">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283">
-        <v>461</v>
-      </c>
       <c r="J283" s="1" t="s">
         <v>497</v>
       </c>
@@ -17630,7 +17582,7 @@
     </row>
     <row r="285" spans="1:17">
       <c r="J285" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K285">
         <v>0.136</v>
@@ -17708,7 +17660,7 @@
     </row>
     <row r="288" spans="1:17">
       <c r="J288" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K288">
         <v>0.1349693251533742</v>
@@ -17734,7 +17686,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K289">
         <v>0.1346153846153846</v>
@@ -17812,7 +17764,7 @@
     </row>
     <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K292">
         <v>0.1333333333333333</v>
@@ -17942,7 +17894,7 @@
     </row>
     <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K297">
         <v>0.1333333333333333</v>
@@ -17968,7 +17920,7 @@
     </row>
     <row r="298" spans="10:17">
       <c r="J298" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K298">
         <v>0.1333333333333333</v>
@@ -18202,7 +18154,7 @@
     </row>
     <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K307">
         <v>0.1290322580645161</v>
@@ -18228,7 +18180,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K308">
         <v>0.1290322580645161</v>
@@ -18358,7 +18310,7 @@
     </row>
     <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K313">
         <v>0.125</v>
@@ -19502,7 +19454,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K357">
         <v>0.1235294117647059</v>
@@ -19554,7 +19506,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K359">
         <v>0.1219512195121951</v>
@@ -19606,7 +19558,7 @@
     </row>
     <row r="361" spans="10:17">
       <c r="J361" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K361">
         <v>0.1203703703703704</v>
@@ -19944,7 +19896,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K374">
         <v>0.1176470588235294</v>
@@ -20256,7 +20208,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K386">
         <v>0.1113550815558344</v>
@@ -20438,7 +20390,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K393">
         <v>0.1111111111111111</v>
@@ -20932,7 +20884,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K412">
         <v>0.109375</v>
@@ -21036,7 +20988,7 @@
     </row>
     <row r="416" spans="10:17">
       <c r="J416" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K416">
         <v>0.1060606060606061</v>
@@ -21244,7 +21196,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K424">
         <v>0.1041666666666667</v>
@@ -21270,7 +21222,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K425">
         <v>0.1035714285714286</v>
@@ -21374,7 +21326,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K429">
         <v>0.1031390134529148</v>
@@ -21426,7 +21378,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K431">
         <v>0.1023622047244094</v>
@@ -21452,7 +21404,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K432">
         <v>0.1020408163265306</v>
@@ -21478,7 +21430,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K433">
         <v>0.1012658227848101</v>
@@ -22726,7 +22678,7 @@
     </row>
     <row r="481" spans="10:17">
       <c r="J481" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K481">
         <v>0.09090909090909091</v>
@@ -22934,7 +22886,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K489">
         <v>0.09090909090909091</v>
@@ -23480,7 +23432,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K510">
         <v>0.08928571428571429</v>
@@ -23506,7 +23458,7 @@
     </row>
     <row r="511" spans="10:17">
       <c r="J511" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K511">
         <v>0.08888888888888889</v>
@@ -23584,7 +23536,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K514">
         <v>0.08759124087591241</v>
@@ -23714,7 +23666,7 @@
     </row>
     <row r="519" spans="10:17">
       <c r="J519" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K519">
         <v>0.08620689655172414</v>
@@ -24468,7 +24420,7 @@
     </row>
     <row r="548" spans="10:17">
       <c r="J548" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K548">
         <v>0.08163265306122448</v>
@@ -24806,7 +24758,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K561">
         <v>0.07692307692307693</v>
@@ -24832,7 +24784,7 @@
     </row>
     <row r="562" spans="10:17">
       <c r="J562" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K562">
         <v>0.07692307692307693</v>
@@ -25300,7 +25252,7 @@
     </row>
     <row r="580" spans="10:17">
       <c r="J580" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K580">
         <v>0.07612456747404844</v>
@@ -25326,7 +25278,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K581">
         <v>0.07547169811320754</v>
@@ -25378,7 +25330,7 @@
     </row>
     <row r="583" spans="10:17">
       <c r="J583" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K583">
         <v>0.07462686567164178</v>
@@ -25404,7 +25356,7 @@
     </row>
     <row r="584" spans="10:17">
       <c r="J584" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K584">
         <v>0.07407407407407407</v>
@@ -25508,7 +25460,7 @@
     </row>
     <row r="588" spans="10:17">
       <c r="J588" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K588">
         <v>0.07366482504604052</v>
@@ -25534,7 +25486,7 @@
     </row>
     <row r="589" spans="10:17">
       <c r="J589" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K589">
         <v>0.07272727272727272</v>
@@ -25560,7 +25512,7 @@
     </row>
     <row r="590" spans="10:17">
       <c r="J590" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K590">
         <v>0.07142857142857142</v>
@@ -26002,7 +25954,7 @@
     </row>
     <row r="607" spans="10:17">
       <c r="J607" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K607">
         <v>0.07142857142857142</v>
@@ -26288,7 +26240,7 @@
     </row>
     <row r="618" spans="10:17">
       <c r="J618" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K618">
         <v>0.07017543859649122</v>
@@ -26392,7 +26344,7 @@
     </row>
     <row r="622" spans="10:17">
       <c r="J622" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K622">
         <v>0.06963788300835655</v>
@@ -26496,7 +26448,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K626">
         <v>0.06818181818181818</v>
@@ -26808,7 +26760,7 @@
     </row>
     <row r="638" spans="10:17">
       <c r="J638" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K638">
         <v>0.06666666666666667</v>
@@ -27146,7 +27098,7 @@
     </row>
     <row r="651" spans="10:17">
       <c r="J651" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K651">
         <v>0.06451612903225806</v>
@@ -27250,7 +27202,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K655">
         <v>0.06382978723404255</v>
@@ -27354,7 +27306,7 @@
     </row>
     <row r="659" spans="10:17">
       <c r="J659" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K659">
         <v>0.06299212598425197</v>
@@ -27692,7 +27644,7 @@
     </row>
     <row r="672" spans="10:17">
       <c r="J672" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K672">
         <v>0.06172839506172839</v>
@@ -27718,7 +27670,7 @@
     </row>
     <row r="673" spans="10:17">
       <c r="J673" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K673">
         <v>0.06140350877192982</v>
@@ -28030,7 +27982,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K685">
         <v>0.05882352941176471</v>
@@ -29148,7 +29100,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K728">
         <v>0.05263157894736842</v>
@@ -29694,7 +29646,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K749">
         <v>0.04938271604938271</v>
@@ -29824,7 +29776,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K754">
         <v>0.04838709677419355</v>
@@ -30292,7 +30244,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K772">
         <v>0.04545454545454546</v>
@@ -30474,7 +30426,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K779">
         <v>0.04545454545454546</v>
@@ -30734,7 +30686,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K789">
         <v>0.04347826086956522</v>
@@ -30968,7 +30920,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K798">
         <v>0.04142011834319527</v>
@@ -31046,7 +30998,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K801">
         <v>0.04079497907949791</v>
@@ -31384,7 +31336,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K814">
         <v>0.03846153846153846</v>
@@ -31462,7 +31414,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K817">
         <v>0.0380952380952381</v>
@@ -31696,7 +31648,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K826">
         <v>0.03571428571428571</v>
@@ -31800,7 +31752,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K830">
         <v>0.03448275862068965</v>
@@ -32086,7 +32038,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K841">
         <v>0.03125</v>
@@ -32242,7 +32194,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K847">
         <v>0.0303030303030303</v>
@@ -32450,7 +32402,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K855">
         <v>0.02631578947368421</v>
@@ -32502,7 +32454,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K857">
         <v>0.02564102564102564</v>
@@ -32606,7 +32558,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K861">
         <v>0.025</v>
@@ -33048,7 +33000,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K878">
         <v>0.02054794520547945</v>
@@ -33074,7 +33026,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K879">
         <v>0.02</v>
@@ -33256,7 +33208,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K886">
         <v>0.01724137931034483</v>
@@ -33490,7 +33442,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K895">
         <v>0.01333333333333333</v>
@@ -33594,7 +33546,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K899">
         <v>0.00425531914893617</v>
